--- a/server/双机高可用方案/新建 Microsoft Excel 工作表.xlsx
+++ b/server/双机高可用方案/新建 Microsoft Excel 工作表.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="负载均衡" sheetId="1" r:id="rId1"/>
     <sheet name="文件同步" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="数据库中间件DAL" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>Haproxy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +310,18 @@
   <si>
     <t>1.基于inotify和rsync。
 2.解决了海量文件同步效率低的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Altas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL Router</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyCat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -486,50 +499,53 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,7 +854,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -898,45 +914,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="24" customWidth="1"/>
-    <col min="2" max="3" width="18" style="24" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="7.75" style="19" customWidth="1"/>
+    <col min="2" max="3" width="18" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="111.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -989,94 +1005,94 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
@@ -1121,26 +1137,26 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1169,4 +1185,53 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>